--- a/data/contact/total_list.xlsx
+++ b/data/contact/total_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\simbyungki\git\car_news_zip\data\contact\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEC2F71C-0AC9-46C9-972A-0087A8AE4D95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47B26822-7AC3-467E-BF54-C3335DB71817}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28020" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="total_list" sheetId="1" r:id="rId1"/>
@@ -7739,12 +7739,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:K438"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A365" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D403" sqref="D403"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7789,7 +7788,7 @@
       <c r="J1" s="13"/>
       <c r="K1" s="13"/>
     </row>
-    <row r="2" spans="1:11" s="4" customFormat="1" ht="83.25" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" s="4" customFormat="1" ht="83.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <v>2</v>
       </c>
@@ -7822,7 +7821,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="4" customFormat="1" ht="44.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" s="4" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -7855,7 +7854,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="66.75" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="66" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>13</v>
       </c>
@@ -7888,7 +7887,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="4" customFormat="1" ht="99" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" s="4" customFormat="1" ht="99" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>3</v>
       </c>
@@ -7914,7 +7913,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="264" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="264" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>6</v>
       </c>
@@ -7940,7 +7939,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -7964,7 +7963,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="4" customFormat="1" ht="82.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" s="4" customFormat="1" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>15</v>
       </c>
@@ -7990,7 +7989,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="181.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="181.5" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>6</v>
       </c>
@@ -8042,7 +8041,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="4" customFormat="1" ht="82.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" s="4" customFormat="1" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>5</v>
       </c>
@@ -8068,7 +8067,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="4" customFormat="1" ht="132" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" s="4" customFormat="1" ht="132" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>18</v>
       </c>
@@ -8094,7 +8093,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="4" customFormat="1" ht="66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" s="4" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>2</v>
       </c>
@@ -8120,7 +8119,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="4" customFormat="1" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" s="4" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <v>11</v>
       </c>
@@ -8146,7 +8145,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="82.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
         <v>0</v>
       </c>
@@ -8172,7 +8171,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:11" s="4" customFormat="1" ht="66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" s="4" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <v>1</v>
       </c>
@@ -8198,7 +8197,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="99" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="99" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <v>4</v>
       </c>
@@ -8224,7 +8223,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="99" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="99" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <v>6</v>
       </c>
@@ -8250,7 +8249,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="4" customFormat="1" ht="66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" s="4" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
         <v>17</v>
       </c>
@@ -8302,7 +8301,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="82.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <v>19</v>
       </c>
@@ -8328,7 +8327,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="82.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
         <v>8</v>
       </c>
@@ -8354,7 +8353,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="23" spans="1:8" s="4" customFormat="1" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" s="4" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
         <v>1</v>
       </c>
@@ -8380,7 +8379,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="165" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" ht="165" x14ac:dyDescent="0.3">
       <c r="A24" s="6">
         <v>2</v>
       </c>
@@ -8406,7 +8405,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="25" spans="1:8" s="4" customFormat="1" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" s="4" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A25" s="6">
         <v>1</v>
       </c>
@@ -8432,7 +8431,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="26" spans="1:8" s="4" customFormat="1" ht="66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" s="4" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="A26" s="6">
         <v>1</v>
       </c>
@@ -8458,7 +8457,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="99" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" ht="99" x14ac:dyDescent="0.3">
       <c r="A27" s="6">
         <v>1</v>
       </c>
@@ -8484,7 +8483,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="28" spans="1:8" s="4" customFormat="1" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" s="4" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A28" s="6">
         <v>1</v>
       </c>
@@ -8510,7 +8509,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="29" spans="1:8" s="4" customFormat="1" ht="264" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" s="4" customFormat="1" ht="264" x14ac:dyDescent="0.3">
       <c r="A29" s="6">
         <v>9</v>
       </c>
@@ -8536,7 +8535,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="165" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" ht="165" x14ac:dyDescent="0.3">
       <c r="A30" s="6">
         <v>0</v>
       </c>
@@ -8562,7 +8561,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" ht="66" x14ac:dyDescent="0.3">
       <c r="A31" s="6">
         <v>18</v>
       </c>
@@ -8588,7 +8587,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" ht="66" x14ac:dyDescent="0.3">
       <c r="A32" s="6">
         <v>1</v>
       </c>
@@ -8614,7 +8613,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="33" spans="1:8" s="4" customFormat="1" ht="66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" s="4" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="A33" s="6">
         <v>1</v>
       </c>
@@ -8640,7 +8639,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A34" s="6">
         <v>1</v>
       </c>
@@ -8666,7 +8665,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="35" spans="1:8" s="4" customFormat="1" ht="66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" s="4" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="A35" s="6">
         <v>3</v>
       </c>
@@ -8692,7 +8691,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="115.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A36" s="6">
         <v>1</v>
       </c>
@@ -8718,7 +8717,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="82.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A37" s="6">
         <v>21</v>
       </c>
@@ -8744,7 +8743,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A38" s="6">
         <v>0</v>
       </c>
@@ -8770,7 +8769,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" ht="66" x14ac:dyDescent="0.3">
       <c r="A39" s="6">
         <v>21</v>
       </c>
@@ -8796,7 +8795,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" ht="66" x14ac:dyDescent="0.3">
       <c r="A40" s="6">
         <v>18</v>
       </c>
@@ -8822,7 +8821,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="115.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A41" s="6">
         <v>0</v>
       </c>
@@ -8848,7 +8847,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="99" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" ht="99" x14ac:dyDescent="0.3">
       <c r="A42" s="6">
         <v>1</v>
       </c>
@@ -8874,7 +8873,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="82.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A43" s="6">
         <v>1</v>
       </c>
@@ -8900,7 +8899,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="44" spans="1:8" s="4" customFormat="1" ht="181.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" s="4" customFormat="1" ht="181.5" x14ac:dyDescent="0.3">
       <c r="A44" s="6">
         <v>21</v>
       </c>
@@ -8926,7 +8925,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" ht="66" x14ac:dyDescent="0.3">
       <c r="A45" s="6">
         <v>2</v>
       </c>
@@ -8952,7 +8951,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A46" s="6">
         <v>1</v>
       </c>
@@ -8978,7 +8977,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="47" spans="1:8" s="4" customFormat="1" ht="66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" s="4" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="A47" s="6">
         <v>15</v>
       </c>
@@ -9004,7 +9003,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" ht="66" x14ac:dyDescent="0.3">
       <c r="A48" s="6">
         <v>1</v>
       </c>
@@ -9030,7 +9029,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="49" spans="1:8" s="4" customFormat="1" ht="82.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" s="4" customFormat="1" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A49" s="6">
         <v>15</v>
       </c>
@@ -9082,7 +9081,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A51" s="6">
         <v>1</v>
       </c>
@@ -9108,7 +9107,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A52" s="6">
         <v>1</v>
       </c>
@@ -9134,7 +9133,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="82.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A53" s="6">
         <v>25</v>
       </c>
@@ -9160,7 +9159,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="82.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A54" s="6">
         <v>2</v>
       </c>
@@ -9186,7 +9185,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A55" s="6">
         <v>15</v>
       </c>
@@ -9212,7 +9211,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="148.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" ht="148.5" x14ac:dyDescent="0.3">
       <c r="A56" s="6">
         <v>1</v>
       </c>
@@ -9238,7 +9237,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="82.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A57" s="6">
         <v>23</v>
       </c>
@@ -9264,7 +9263,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="99" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" ht="99" x14ac:dyDescent="0.3">
       <c r="A58" s="6">
         <v>4</v>
       </c>
@@ -9290,7 +9289,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A59" s="6">
         <v>1</v>
       </c>
@@ -9316,7 +9315,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="165" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" ht="165" x14ac:dyDescent="0.3">
       <c r="A60" s="6">
         <v>1</v>
       </c>
@@ -9342,7 +9341,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A61" s="6">
         <v>1</v>
       </c>
@@ -9368,7 +9367,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="297" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" ht="297" x14ac:dyDescent="0.3">
       <c r="A62" s="6">
         <v>9</v>
       </c>
@@ -9394,7 +9393,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="82.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A63" s="6">
         <v>1</v>
       </c>
@@ -9420,7 +9419,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="99" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" ht="99" x14ac:dyDescent="0.3">
       <c r="A64" s="6">
         <v>1</v>
       </c>
@@ -9446,7 +9445,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A65" s="6">
         <v>4</v>
       </c>
@@ -9472,7 +9471,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" ht="66" x14ac:dyDescent="0.3">
       <c r="A66" s="6">
         <v>15</v>
       </c>
@@ -9498,7 +9497,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="67" spans="1:8" s="4" customFormat="1" ht="99" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" s="4" customFormat="1" ht="99" x14ac:dyDescent="0.3">
       <c r="A67" s="6">
         <v>17</v>
       </c>
@@ -9550,7 +9549,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A69" s="6">
         <v>1</v>
       </c>
@@ -9576,7 +9575,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" ht="66" x14ac:dyDescent="0.3">
       <c r="A70" s="6">
         <v>6</v>
       </c>
@@ -9602,7 +9601,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" ht="66" x14ac:dyDescent="0.3">
       <c r="A71" s="6">
         <v>1</v>
       </c>
@@ -9628,7 +9627,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" ht="66" x14ac:dyDescent="0.3">
       <c r="A72" s="6">
         <v>1</v>
       </c>
@@ -9654,7 +9653,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="99" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" ht="99" x14ac:dyDescent="0.3">
       <c r="A73" s="6">
         <v>3</v>
       </c>
@@ -9706,7 +9705,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="132" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" ht="132" x14ac:dyDescent="0.3">
       <c r="A75" s="6">
         <v>1</v>
       </c>
@@ -9732,7 +9731,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A76" s="6">
         <v>25</v>
       </c>
@@ -9810,7 +9809,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A79" s="6">
         <v>1</v>
       </c>
@@ -9836,7 +9835,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A80" s="6">
         <v>1</v>
       </c>
@@ -9888,7 +9887,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A82" s="6">
         <v>1</v>
       </c>
@@ -9914,7 +9913,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" ht="66" x14ac:dyDescent="0.3">
       <c r="A83" s="6">
         <v>1</v>
       </c>
@@ -9940,7 +9939,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="247.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" ht="247.5" x14ac:dyDescent="0.3">
       <c r="A84" s="6">
         <v>9</v>
       </c>
@@ -9966,7 +9965,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A85" s="6">
         <v>1</v>
       </c>
@@ -9992,7 +9991,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="82.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A86" s="6">
         <v>21</v>
       </c>
@@ -10018,7 +10017,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" ht="66" x14ac:dyDescent="0.3">
       <c r="A87" s="6">
         <v>1</v>
       </c>
@@ -10044,7 +10043,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" ht="66" x14ac:dyDescent="0.3">
       <c r="A88" s="6">
         <v>10</v>
       </c>
@@ -10070,7 +10069,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A89" s="6">
         <v>1</v>
       </c>
@@ -10096,7 +10095,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A90" s="6">
         <v>27</v>
       </c>
@@ -10122,7 +10121,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A91" s="6">
         <v>1</v>
       </c>
@@ -10148,7 +10147,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A92" s="6">
         <v>1</v>
       </c>
@@ -10174,7 +10173,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="93" spans="1:8" s="4" customFormat="1" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" s="4" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A93" s="6">
         <v>15</v>
       </c>
@@ -10200,7 +10199,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A94" s="6">
         <v>1</v>
       </c>
@@ -10226,7 +10225,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="95" spans="1:8" s="4" customFormat="1" ht="66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8" s="4" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="A95" s="6">
         <v>15</v>
       </c>
@@ -10252,7 +10251,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" ht="66" x14ac:dyDescent="0.3">
       <c r="A96" s="6">
         <v>2</v>
       </c>
@@ -10278,7 +10277,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="97" spans="1:8" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A97" s="6">
         <v>18</v>
       </c>
@@ -10304,7 +10303,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="98" spans="1:8" ht="82.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A98" s="6">
         <v>21</v>
       </c>
@@ -10330,7 +10329,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="99" spans="1:8" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A99" s="6">
         <v>1</v>
       </c>
@@ -10356,7 +10355,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="100" spans="1:8" ht="66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:8" ht="66" x14ac:dyDescent="0.3">
       <c r="A100" s="6">
         <v>21</v>
       </c>
@@ -10382,7 +10381,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="101" spans="1:8" ht="66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:8" ht="66" x14ac:dyDescent="0.3">
       <c r="A101" s="6">
         <v>1</v>
       </c>
@@ -10408,7 +10407,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="102" spans="1:8" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A102" s="6">
         <v>1</v>
       </c>
@@ -10434,7 +10433,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="103" spans="1:8" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A103" s="6">
         <v>1</v>
       </c>
@@ -10460,7 +10459,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="104" spans="1:8" ht="82.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:8" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A104" s="6">
         <v>15</v>
       </c>
@@ -10486,7 +10485,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="105" spans="1:8" ht="247.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:8" ht="247.5" x14ac:dyDescent="0.3">
       <c r="A105" s="6">
         <v>15</v>
       </c>
@@ -10512,7 +10511,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="106" spans="1:8" ht="99" hidden="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:8" ht="99" x14ac:dyDescent="0.3">
       <c r="A106" s="6">
         <v>6</v>
       </c>
@@ -10538,7 +10537,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="107" spans="1:8" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A107" s="6">
         <v>6</v>
       </c>
@@ -10564,7 +10563,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="108" spans="1:8" ht="66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:8" ht="66" x14ac:dyDescent="0.3">
       <c r="A108" s="6">
         <v>12</v>
       </c>
@@ -10590,7 +10589,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="109" spans="1:8" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A109" s="6">
         <v>1</v>
       </c>
@@ -10668,7 +10667,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="112" spans="1:8" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A112" s="6">
         <v>1</v>
       </c>
@@ -10694,7 +10693,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="113" spans="1:8" ht="66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:8" ht="66" x14ac:dyDescent="0.3">
       <c r="A113" s="6">
         <v>1</v>
       </c>
@@ -10720,7 +10719,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="114" spans="1:8" ht="82.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:8" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A114" s="6">
         <v>1</v>
       </c>
@@ -10746,7 +10745,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="115" spans="1:8" ht="99" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:8" ht="99" x14ac:dyDescent="0.3">
       <c r="A115" s="6">
         <v>18</v>
       </c>
@@ -10772,7 +10771,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="116" spans="1:8" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A116" s="6">
         <v>4</v>
       </c>
@@ -10798,7 +10797,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="117" spans="1:8" ht="115.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:8" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A117" s="6">
         <v>18</v>
       </c>
@@ -10824,7 +10823,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="118" spans="1:8" ht="99" hidden="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:8" ht="99" x14ac:dyDescent="0.3">
       <c r="A118" s="6">
         <v>23</v>
       </c>
@@ -10850,7 +10849,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="119" spans="1:8" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A119" s="6">
         <v>15</v>
       </c>
@@ -10876,7 +10875,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="120" spans="1:8" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A120" s="6">
         <v>1</v>
       </c>
@@ -10902,7 +10901,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="121" spans="1:8" ht="66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:8" ht="66" x14ac:dyDescent="0.3">
       <c r="A121" s="6">
         <v>1</v>
       </c>
@@ -10928,7 +10927,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="122" spans="1:8" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A122" s="6">
         <v>21</v>
       </c>
@@ -10954,7 +10953,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="123" spans="1:8" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A123" s="6">
         <v>1</v>
       </c>
@@ -10980,7 +10979,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="124" spans="1:8" ht="66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:8" ht="66" x14ac:dyDescent="0.3">
       <c r="A124" s="6">
         <v>10</v>
       </c>
@@ -11006,7 +11005,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="125" spans="1:8" ht="82.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:8" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A125" s="6">
         <v>1</v>
       </c>
@@ -11032,7 +11031,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="126" spans="1:8" ht="82.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:8" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A126" s="6">
         <v>1</v>
       </c>
@@ -11058,7 +11057,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="127" spans="1:8" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A127" s="6">
         <v>1</v>
       </c>
@@ -11084,7 +11083,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="128" spans="1:8" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A128" s="6">
         <v>2</v>
       </c>
@@ -11110,7 +11109,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="129" spans="1:8" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A129" s="6">
         <v>7</v>
       </c>
@@ -11136,7 +11135,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="130" spans="1:8" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A130" s="6">
         <v>7</v>
       </c>
@@ -11162,7 +11161,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="131" spans="1:8" ht="115.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:8" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A131" s="6">
         <v>6</v>
       </c>
@@ -11188,7 +11187,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="132" spans="1:8" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A132" s="6">
         <v>1</v>
       </c>
@@ -11240,7 +11239,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="134" spans="1:8" ht="115.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:8" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A134" s="6">
         <v>18</v>
       </c>
@@ -11266,7 +11265,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="135" spans="1:8" s="4" customFormat="1" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:8" s="4" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A135" s="6">
         <v>1</v>
       </c>
@@ -11292,7 +11291,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="136" spans="1:8" s="4" customFormat="1" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:8" s="4" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A136" s="6">
         <v>1</v>
       </c>
@@ -11318,7 +11317,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="137" spans="1:8" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A137" s="6">
         <v>25</v>
       </c>
@@ -11344,7 +11343,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="138" spans="1:8" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A138" s="6">
         <v>1</v>
       </c>
@@ -11370,7 +11369,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="139" spans="1:8" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A139" s="6">
         <v>1</v>
       </c>
@@ -11396,7 +11395,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="140" spans="1:8" ht="82.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:8" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A140" s="6">
         <v>21</v>
       </c>
@@ -11422,7 +11421,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="141" spans="1:8" ht="66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:8" ht="66" x14ac:dyDescent="0.3">
       <c r="A141" s="6">
         <v>14</v>
       </c>
@@ -11448,7 +11447,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="142" spans="1:8" ht="148.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:8" ht="148.5" x14ac:dyDescent="0.3">
       <c r="A142" s="6">
         <v>1</v>
       </c>
@@ -11474,7 +11473,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="143" spans="1:8" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A143" s="6">
         <v>1</v>
       </c>
@@ -11500,7 +11499,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="144" spans="1:8" ht="115.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:8" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A144" s="6">
         <v>1</v>
       </c>
@@ -11526,7 +11525,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="145" spans="1:8" ht="66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:8" ht="66" x14ac:dyDescent="0.3">
       <c r="A145" s="6">
         <v>25</v>
       </c>
@@ -11552,7 +11551,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="146" spans="1:8" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A146" s="6">
         <v>14</v>
       </c>
@@ -11578,7 +11577,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="147" spans="1:8" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A147" s="6">
         <v>1</v>
       </c>
@@ -11604,7 +11603,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="148" spans="1:8" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A148" s="6">
         <v>25</v>
       </c>
@@ -11630,7 +11629,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="149" spans="1:8" s="4" customFormat="1" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:8" s="4" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A149" s="6">
         <v>15</v>
       </c>
@@ -11656,7 +11655,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="150" spans="1:8" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A150" s="6">
         <v>7</v>
       </c>
@@ -11682,7 +11681,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="151" spans="1:8" ht="66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:8" ht="66" x14ac:dyDescent="0.3">
       <c r="A151" s="6">
         <v>1</v>
       </c>
@@ -11734,7 +11733,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="153" spans="1:8" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A153" s="6">
         <v>6</v>
       </c>
@@ -11760,7 +11759,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="154" spans="1:8" ht="165" hidden="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:8" ht="165" x14ac:dyDescent="0.3">
       <c r="A154" s="6">
         <v>1</v>
       </c>
@@ -11786,7 +11785,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="155" spans="1:8" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A155" s="6">
         <v>1</v>
       </c>
@@ -11812,7 +11811,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="156" spans="1:8" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A156" s="6">
         <v>17</v>
       </c>
@@ -11838,7 +11837,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="157" spans="1:8" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A157" s="6">
         <v>17</v>
       </c>
@@ -11864,7 +11863,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="158" spans="1:8" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A158" s="6">
         <v>21</v>
       </c>
@@ -11916,7 +11915,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="160" spans="1:8" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A160" s="6">
         <v>23</v>
       </c>
@@ -11942,7 +11941,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="161" spans="1:8" s="4" customFormat="1" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:8" s="4" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A161" s="6">
         <v>1</v>
       </c>
@@ -11968,7 +11967,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="162" spans="1:8" s="4" customFormat="1" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:8" s="4" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A162" s="6">
         <v>3</v>
       </c>
@@ -11994,7 +11993,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="163" spans="1:8" s="4" customFormat="1" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:8" s="4" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A163" s="6">
         <v>3</v>
       </c>
@@ -12020,7 +12019,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="164" spans="1:8" ht="66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:8" ht="66" x14ac:dyDescent="0.3">
       <c r="A164" s="6">
         <v>17</v>
       </c>
@@ -12046,7 +12045,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="165" spans="1:8" s="4" customFormat="1" ht="115.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:8" s="4" customFormat="1" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A165" s="6">
         <v>15</v>
       </c>
@@ -12098,7 +12097,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="167" spans="1:8" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A167" s="6">
         <v>1</v>
       </c>
@@ -12124,7 +12123,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="168" spans="1:8" ht="66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:8" ht="66" x14ac:dyDescent="0.3">
       <c r="A168" s="6">
         <v>0</v>
       </c>
@@ -12176,7 +12175,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="170" spans="1:8" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A170" s="6">
         <v>17</v>
       </c>
@@ -12202,7 +12201,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="171" spans="1:8" ht="66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:8" ht="66" x14ac:dyDescent="0.3">
       <c r="A171" s="6">
         <v>16</v>
       </c>
@@ -12228,7 +12227,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="172" spans="1:8" ht="99" hidden="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:8" ht="99" x14ac:dyDescent="0.3">
       <c r="A172" s="6">
         <v>6</v>
       </c>
@@ -12254,7 +12253,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="173" spans="1:8" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A173" s="6">
         <v>1</v>
       </c>
@@ -12280,7 +12279,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="174" spans="1:8" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A174" s="6">
         <v>1</v>
       </c>
@@ -12306,7 +12305,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="175" spans="1:8" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A175" s="6">
         <v>27</v>
       </c>
@@ -12332,7 +12331,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="176" spans="1:8" ht="165" hidden="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:8" ht="165" x14ac:dyDescent="0.3">
       <c r="A176" s="6">
         <v>6</v>
       </c>
@@ -12358,7 +12357,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="177" spans="1:8" ht="66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:8" ht="66" x14ac:dyDescent="0.3">
       <c r="A177" s="6">
         <v>27</v>
       </c>
@@ -12384,7 +12383,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="178" spans="1:8" ht="66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:8" ht="66" x14ac:dyDescent="0.3">
       <c r="A178" s="6">
         <v>7</v>
       </c>
@@ -12410,7 +12409,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="179" spans="1:8" ht="66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:8" ht="66" x14ac:dyDescent="0.3">
       <c r="A179" s="6">
         <v>1</v>
       </c>
@@ -12436,7 +12435,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="180" spans="1:8" ht="66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:8" ht="66" x14ac:dyDescent="0.3">
       <c r="A180" s="6">
         <v>25</v>
       </c>
@@ -12462,7 +12461,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="181" spans="1:8" ht="66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:8" ht="66" x14ac:dyDescent="0.3">
       <c r="A181" s="6">
         <v>25</v>
       </c>
@@ -12488,7 +12487,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="182" spans="1:8" s="4" customFormat="1" ht="148.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:8" s="4" customFormat="1" ht="148.5" x14ac:dyDescent="0.3">
       <c r="A182" s="6">
         <v>0</v>
       </c>
@@ -12514,7 +12513,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="183" spans="1:8" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A183" s="6">
         <v>1</v>
       </c>
@@ -12540,7 +12539,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="184" spans="1:8" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A184" s="6">
         <v>18</v>
       </c>
@@ -12566,7 +12565,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="185" spans="1:8" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A185" s="6">
         <v>1</v>
       </c>
@@ -12592,7 +12591,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="186" spans="1:8" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A186" s="6">
         <v>25</v>
       </c>
@@ -12618,7 +12617,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="187" spans="1:8" s="5" customFormat="1" ht="66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:8" s="5" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="A187" s="6">
         <v>16</v>
       </c>
@@ -12644,7 +12643,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="188" spans="1:8" s="5" customFormat="1" ht="66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:8" s="5" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="A188" s="6">
         <v>16</v>
       </c>
@@ -12670,7 +12669,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="189" spans="1:8" ht="66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:8" ht="66" x14ac:dyDescent="0.3">
       <c r="A189" s="6">
         <v>6</v>
       </c>
@@ -12696,7 +12695,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="190" spans="1:8" ht="66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:8" ht="66" x14ac:dyDescent="0.3">
       <c r="A190" s="6">
         <v>25</v>
       </c>
@@ -12722,7 +12721,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="191" spans="1:8" ht="66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:8" ht="66" x14ac:dyDescent="0.3">
       <c r="A191" s="6">
         <v>21</v>
       </c>
@@ -12748,7 +12747,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="192" spans="1:8" ht="66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:8" ht="66" x14ac:dyDescent="0.3">
       <c r="A192" s="6">
         <v>12</v>
       </c>
@@ -12774,7 +12773,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="193" spans="1:8" s="5" customFormat="1" ht="66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:8" s="5" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="A193" s="6">
         <v>6</v>
       </c>
@@ -12800,7 +12799,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="194" spans="1:8" ht="66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:8" ht="66" x14ac:dyDescent="0.3">
       <c r="A194" s="6">
         <v>16</v>
       </c>
@@ -12826,7 +12825,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="195" spans="1:8" s="5" customFormat="1" ht="66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:8" s="5" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="A195" s="6">
         <v>16</v>
       </c>
@@ -12852,7 +12851,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="196" spans="1:8" s="5" customFormat="1" ht="66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:8" s="5" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="A196" s="6">
         <v>16</v>
       </c>
@@ -12878,7 +12877,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="197" spans="1:8" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A197" s="6">
         <v>25</v>
       </c>
@@ -12904,7 +12903,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="198" spans="1:8" ht="115.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:8" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A198" s="6">
         <v>18</v>
       </c>
@@ -12930,7 +12929,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="199" spans="1:8" s="5" customFormat="1" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:8" s="5" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A199" s="6">
         <v>7</v>
       </c>
@@ -12956,7 +12955,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="200" spans="1:8" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A200" s="6">
         <v>1</v>
       </c>
@@ -12982,7 +12981,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="201" spans="1:8" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A201" s="6">
         <v>1</v>
       </c>
@@ -13008,7 +13007,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="202" spans="1:8" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A202" s="6">
         <v>1</v>
       </c>
@@ -13034,7 +13033,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="203" spans="1:8" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A203" s="6">
         <v>1</v>
       </c>
@@ -13060,7 +13059,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="204" spans="1:8" ht="99" hidden="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:8" ht="99" x14ac:dyDescent="0.3">
       <c r="A204" s="6">
         <v>16</v>
       </c>
@@ -13086,7 +13085,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="205" spans="1:8" ht="66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:8" ht="66" x14ac:dyDescent="0.3">
       <c r="A205" s="6">
         <v>1</v>
       </c>
@@ -13112,7 +13111,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="206" spans="1:8" ht="132" hidden="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:8" ht="132" x14ac:dyDescent="0.3">
       <c r="A206" s="6">
         <v>25</v>
       </c>
@@ -13138,7 +13137,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="207" spans="1:8" ht="66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:8" ht="66" x14ac:dyDescent="0.3">
       <c r="A207" s="6">
         <v>1</v>
       </c>
@@ -13164,7 +13163,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="208" spans="1:8" ht="99" hidden="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:8" ht="99" x14ac:dyDescent="0.3">
       <c r="A208" s="6">
         <v>1</v>
       </c>
@@ -13190,7 +13189,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="209" spans="1:8" ht="66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:8" ht="66" x14ac:dyDescent="0.3">
       <c r="A209" s="6">
         <v>27</v>
       </c>
@@ -13216,7 +13215,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="210" spans="1:8" s="5" customFormat="1" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:8" s="5" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A210" s="6">
         <v>16</v>
       </c>
@@ -13242,7 +13241,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="211" spans="1:8" s="5" customFormat="1" ht="66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:8" s="5" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="A211" s="6">
         <v>16</v>
       </c>
@@ -13268,7 +13267,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="212" spans="1:8" ht="99" hidden="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:8" ht="99" x14ac:dyDescent="0.3">
       <c r="A212" s="6">
         <v>4</v>
       </c>
@@ -13294,7 +13293,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="213" spans="1:8" s="5" customFormat="1" ht="66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:8" s="5" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="A213" s="6">
         <v>16</v>
       </c>
@@ -13320,7 +13319,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="214" spans="1:8" s="5" customFormat="1" ht="99" hidden="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:8" s="5" customFormat="1" ht="99" x14ac:dyDescent="0.3">
       <c r="A214" s="6">
         <v>16</v>
       </c>
@@ -13346,7 +13345,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="215" spans="1:8" ht="66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:8" ht="66" x14ac:dyDescent="0.3">
       <c r="A215" s="6">
         <v>1</v>
       </c>
@@ -13372,7 +13371,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="216" spans="1:8" ht="66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:8" ht="66" x14ac:dyDescent="0.3">
       <c r="A216" s="6">
         <v>1</v>
       </c>
@@ -13398,7 +13397,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="217" spans="1:8" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A217" s="6">
         <v>21</v>
       </c>
@@ -13424,7 +13423,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="218" spans="1:8" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A218" s="6">
         <v>1</v>
       </c>
@@ -13450,7 +13449,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="219" spans="1:8" ht="66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:8" ht="66" x14ac:dyDescent="0.3">
       <c r="A219" s="6">
         <v>1</v>
       </c>
@@ -13476,7 +13475,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="220" spans="1:8" ht="66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:8" ht="66" x14ac:dyDescent="0.3">
       <c r="A220" s="6">
         <v>27</v>
       </c>
@@ -13502,7 +13501,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="221" spans="1:8" ht="66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:8" ht="66" x14ac:dyDescent="0.3">
       <c r="A221" s="6">
         <v>1</v>
       </c>
@@ -13528,7 +13527,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="222" spans="1:8" s="4" customFormat="1" ht="66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:8" s="4" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="A222" s="6">
         <v>1</v>
       </c>
@@ -13554,7 +13553,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="223" spans="1:8" ht="82.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:8" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A223" s="6">
         <v>18</v>
       </c>
@@ -13580,7 +13579,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="224" spans="1:8" ht="82.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:8" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A224" s="6">
         <v>0</v>
       </c>
@@ -13606,7 +13605,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="225" spans="1:8" ht="99" hidden="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:8" ht="99" x14ac:dyDescent="0.3">
       <c r="A225" s="6">
         <v>0</v>
       </c>
@@ -13632,7 +13631,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="226" spans="1:8" ht="99" hidden="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:8" ht="99" x14ac:dyDescent="0.3">
       <c r="A226" s="6">
         <v>21</v>
       </c>
@@ -13658,7 +13657,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="227" spans="1:8" s="4" customFormat="1" ht="66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:8" s="4" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="A227" s="6">
         <v>25</v>
       </c>
@@ -13684,7 +13683,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="228" spans="1:8" ht="66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:8" ht="66" x14ac:dyDescent="0.3">
       <c r="A228" s="6">
         <v>6</v>
       </c>
@@ -13736,7 +13735,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="230" spans="1:8" s="4" customFormat="1" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:8" s="4" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A230" s="6">
         <v>1</v>
       </c>
@@ -13762,7 +13761,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="231" spans="1:8" ht="66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:8" ht="66" x14ac:dyDescent="0.3">
       <c r="A231" s="6">
         <v>1</v>
       </c>
@@ -13788,7 +13787,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="232" spans="1:8" ht="99" hidden="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:8" ht="99" x14ac:dyDescent="0.3">
       <c r="A232" s="6">
         <v>1</v>
       </c>
@@ -13814,7 +13813,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="233" spans="1:8" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A233" s="6">
         <v>1</v>
       </c>
@@ -13840,7 +13839,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="234" spans="1:8" ht="66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:8" ht="66" x14ac:dyDescent="0.3">
       <c r="A234" s="6">
         <v>0</v>
       </c>
@@ -13866,7 +13865,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="235" spans="1:8" ht="66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:8" ht="66" x14ac:dyDescent="0.3">
       <c r="A235" s="6">
         <v>25</v>
       </c>
@@ -13892,7 +13891,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="236" spans="1:8" ht="66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:8" ht="66" x14ac:dyDescent="0.3">
       <c r="A236" s="6">
         <v>25</v>
       </c>
@@ -13918,7 +13917,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="237" spans="1:8" s="4" customFormat="1" ht="66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:8" s="4" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="A237" s="6">
         <v>1</v>
       </c>
@@ -13944,7 +13943,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="238" spans="1:8" ht="66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:8" ht="66" x14ac:dyDescent="0.3">
       <c r="A238" s="6">
         <v>27</v>
       </c>
@@ -13970,7 +13969,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="239" spans="1:8" ht="66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:8" ht="66" x14ac:dyDescent="0.3">
       <c r="A239" s="6">
         <v>27</v>
       </c>
@@ -13996,7 +13995,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="240" spans="1:8" ht="66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:8" ht="66" x14ac:dyDescent="0.3">
       <c r="A240" s="6">
         <v>1</v>
       </c>
@@ -14022,7 +14021,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="241" spans="1:8" ht="66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:8" ht="66" x14ac:dyDescent="0.3">
       <c r="A241" s="6">
         <v>15</v>
       </c>
@@ -14048,7 +14047,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="242" spans="1:8" ht="66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:8" ht="66" x14ac:dyDescent="0.3">
       <c r="A242" s="6">
         <v>21</v>
       </c>
@@ -14074,7 +14073,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="243" spans="1:8" ht="82.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:8" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A243" s="6">
         <v>0</v>
       </c>
@@ -14100,7 +14099,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="244" spans="1:8" ht="66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:8" ht="66" x14ac:dyDescent="0.3">
       <c r="A244" s="6">
         <v>1</v>
       </c>
@@ -14126,7 +14125,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="245" spans="1:8" ht="115.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:8" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A245" s="6">
         <v>6</v>
       </c>
@@ -14152,7 +14151,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="246" spans="1:8" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A246" s="6">
         <v>25</v>
       </c>
@@ -14178,7 +14177,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="247" spans="1:8" ht="66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:8" ht="66" x14ac:dyDescent="0.3">
       <c r="A247" s="6">
         <v>0</v>
       </c>
@@ -14204,7 +14203,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="248" spans="1:8" s="4" customFormat="1" ht="66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:8" s="4" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="A248" s="6">
         <v>1</v>
       </c>
@@ -14230,7 +14229,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="249" spans="1:8" ht="66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:8" ht="66" x14ac:dyDescent="0.3">
       <c r="A249" s="6">
         <v>1</v>
       </c>
@@ -14256,7 +14255,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="250" spans="1:8" ht="66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:8" ht="66" x14ac:dyDescent="0.3">
       <c r="A250" s="6">
         <v>3</v>
       </c>
@@ -14282,7 +14281,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="251" spans="1:8" s="4" customFormat="1" ht="66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:8" s="4" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="A251" s="6">
         <v>1</v>
       </c>
@@ -14308,7 +14307,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="252" spans="1:8" ht="66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:8" ht="66" x14ac:dyDescent="0.3">
       <c r="A252" s="6">
         <v>3</v>
       </c>
@@ -14334,7 +14333,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="253" spans="1:8" s="4" customFormat="1" ht="66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:8" s="4" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="A253" s="6">
         <v>1</v>
       </c>
@@ -14360,7 +14359,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="254" spans="1:8" ht="132" hidden="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:8" ht="132" x14ac:dyDescent="0.3">
       <c r="A254" s="6">
         <v>6</v>
       </c>
@@ -14386,7 +14385,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="255" spans="1:8" ht="82.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:8" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A255" s="6">
         <v>18</v>
       </c>
@@ -14412,7 +14411,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="256" spans="1:8" ht="198" hidden="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:8" ht="198" x14ac:dyDescent="0.3">
       <c r="A256" s="6">
         <v>18</v>
       </c>
@@ -14438,7 +14437,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="257" spans="1:8" ht="66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:8" ht="66" x14ac:dyDescent="0.3">
       <c r="A257" s="6">
         <v>20</v>
       </c>
@@ -14490,7 +14489,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="259" spans="1:8" ht="66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:8" ht="66" x14ac:dyDescent="0.3">
       <c r="A259" s="6">
         <v>25</v>
       </c>
@@ -14516,7 +14515,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="260" spans="1:8" ht="66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:8" ht="66" x14ac:dyDescent="0.3">
       <c r="A260" s="6">
         <v>1</v>
       </c>
@@ -14542,7 +14541,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="261" spans="1:8" ht="66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:8" ht="66" x14ac:dyDescent="0.3">
       <c r="A261" s="6">
         <v>0</v>
       </c>
@@ -14568,7 +14567,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="262" spans="1:8" ht="66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:8" ht="66" x14ac:dyDescent="0.3">
       <c r="A262" s="6">
         <v>1</v>
       </c>
@@ -14594,7 +14593,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="263" spans="1:8" ht="66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:8" ht="66" x14ac:dyDescent="0.3">
       <c r="A263" s="6">
         <v>1</v>
       </c>
@@ -14620,7 +14619,7 @@
         <v>1177</v>
       </c>
     </row>
-    <row r="264" spans="1:8" s="4" customFormat="1" ht="66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:8" s="4" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="A264" s="6">
         <v>1</v>
       </c>
@@ -14646,7 +14645,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="265" spans="1:8" ht="66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:8" ht="66" x14ac:dyDescent="0.3">
       <c r="A265" s="6">
         <v>6</v>
       </c>
@@ -14672,7 +14671,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="266" spans="1:8" s="4" customFormat="1" ht="66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:8" s="4" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="A266" s="6">
         <v>1</v>
       </c>
@@ -14698,7 +14697,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="267" spans="1:8" s="4" customFormat="1" ht="66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:8" s="4" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="A267" s="6">
         <v>1</v>
       </c>
@@ -14750,7 +14749,7 @@
         <v>1199</v>
       </c>
     </row>
-    <row r="269" spans="1:8" s="4" customFormat="1" ht="66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:8" s="4" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="A269" s="6">
         <v>1</v>
       </c>
@@ -14776,7 +14775,7 @@
         <v>1203</v>
       </c>
     </row>
-    <row r="270" spans="1:8" s="4" customFormat="1" ht="66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:8" s="4" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="A270" s="6">
         <v>1</v>
       </c>
@@ -14802,7 +14801,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="271" spans="1:8" ht="66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:8" ht="66" x14ac:dyDescent="0.3">
       <c r="A271" s="6">
         <v>1</v>
       </c>
@@ -14828,7 +14827,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="272" spans="1:8" s="4" customFormat="1" ht="66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:8" s="4" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="A272" s="6">
         <v>15</v>
       </c>
@@ -14854,7 +14853,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="273" spans="1:8" ht="66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:8" ht="66" x14ac:dyDescent="0.3">
       <c r="A273" s="6">
         <v>0</v>
       </c>
@@ -14880,7 +14879,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="274" spans="1:8" ht="66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:8" ht="66" x14ac:dyDescent="0.3">
       <c r="A274" s="6">
         <v>0</v>
       </c>
@@ -14906,7 +14905,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="275" spans="1:8" ht="66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:8" ht="66" x14ac:dyDescent="0.3">
       <c r="A275" s="6">
         <v>1</v>
       </c>
@@ -14958,7 +14957,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="277" spans="1:8" s="4" customFormat="1" ht="66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:8" s="4" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="A277" s="6">
         <v>1</v>
       </c>
@@ -14984,7 +14983,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="278" spans="1:8" s="4" customFormat="1" ht="66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:8" s="4" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="A278" s="6">
         <v>7</v>
       </c>
@@ -15010,7 +15009,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="279" spans="1:8" s="4" customFormat="1" ht="66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:8" s="4" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="A279" s="6">
         <v>0</v>
       </c>
@@ -15036,7 +15035,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="280" spans="1:8" s="4" customFormat="1" ht="66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:8" s="4" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="A280" s="6">
         <v>7</v>
       </c>
@@ -15062,7 +15061,7 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="281" spans="1:8" s="4" customFormat="1" ht="66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:8" s="4" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="A281" s="6">
         <v>1</v>
       </c>
@@ -15088,7 +15087,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="282" spans="1:8" ht="82.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:8" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A282" s="6">
         <v>6</v>
       </c>
@@ -15114,7 +15113,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="283" spans="1:8" ht="66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:8" ht="66" x14ac:dyDescent="0.3">
       <c r="A283" s="6">
         <v>16</v>
       </c>
@@ -15140,7 +15139,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="284" spans="1:8" ht="66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:8" ht="66" x14ac:dyDescent="0.3">
       <c r="A284" s="6">
         <v>21</v>
       </c>
@@ -15166,7 +15165,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="285" spans="1:8" ht="66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:8" ht="66" x14ac:dyDescent="0.3">
       <c r="A285" s="6">
         <v>1</v>
       </c>
@@ -15192,7 +15191,7 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="286" spans="1:8" ht="66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:8" ht="66" x14ac:dyDescent="0.3">
       <c r="A286" s="6">
         <v>25</v>
       </c>
@@ -15218,7 +15217,7 @@
         <v>1276</v>
       </c>
     </row>
-    <row r="287" spans="1:8" s="4" customFormat="1" ht="66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:8" s="4" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="A287" s="6">
         <v>25</v>
       </c>
@@ -15244,7 +15243,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="288" spans="1:8" ht="66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:8" ht="66" x14ac:dyDescent="0.3">
       <c r="A288" s="6">
         <v>25</v>
       </c>
@@ -15270,7 +15269,7 @@
         <v>1284</v>
       </c>
     </row>
-    <row r="289" spans="1:8" s="4" customFormat="1" ht="66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:8" s="4" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="A289" s="6">
         <v>7</v>
       </c>
@@ -15296,7 +15295,7 @@
         <v>1287</v>
       </c>
     </row>
-    <row r="290" spans="1:8" ht="66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:8" ht="66" x14ac:dyDescent="0.3">
       <c r="A290" s="6">
         <v>1</v>
       </c>
@@ -15322,7 +15321,7 @@
         <v>1292</v>
       </c>
     </row>
-    <row r="291" spans="1:8" ht="66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:8" ht="66" x14ac:dyDescent="0.3">
       <c r="A291" s="6">
         <v>20</v>
       </c>
@@ -15348,7 +15347,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="292" spans="1:8" ht="82.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:8" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A292" s="6">
         <v>20</v>
       </c>
@@ -15374,7 +15373,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="293" spans="1:8" ht="181.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:8" ht="181.5" x14ac:dyDescent="0.3">
       <c r="A293" s="6">
         <v>1</v>
       </c>
@@ -15400,7 +15399,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="294" spans="1:8" ht="115.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:8" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A294" s="6">
         <v>1</v>
       </c>
@@ -15452,7 +15451,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="296" spans="1:8" ht="66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:8" ht="66" x14ac:dyDescent="0.3">
       <c r="A296" s="6">
         <v>6</v>
       </c>
@@ -15478,7 +15477,7 @@
         <v>1318</v>
       </c>
     </row>
-    <row r="297" spans="1:8" ht="66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:8" ht="66" x14ac:dyDescent="0.3">
       <c r="A297" s="6">
         <v>16</v>
       </c>
@@ -15504,7 +15503,7 @@
         <v>1321</v>
       </c>
     </row>
-    <row r="298" spans="1:8" ht="66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:8" ht="66" x14ac:dyDescent="0.3">
       <c r="A298" s="6">
         <v>18</v>
       </c>
@@ -15530,7 +15529,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="299" spans="1:8" ht="66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:8" ht="66" x14ac:dyDescent="0.3">
       <c r="A299" s="6">
         <v>21</v>
       </c>
@@ -15556,7 +15555,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="300" spans="1:8" ht="66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:8" ht="66" x14ac:dyDescent="0.3">
       <c r="A300" s="6">
         <v>14</v>
       </c>
@@ -15582,7 +15581,7 @@
         <v>1337</v>
       </c>
     </row>
-    <row r="301" spans="1:8" ht="66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:8" ht="66" x14ac:dyDescent="0.3">
       <c r="A301" s="6">
         <v>1</v>
       </c>
@@ -15608,7 +15607,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="302" spans="1:8" ht="82.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:8" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A302" s="6">
         <v>1</v>
       </c>
@@ -15634,7 +15633,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="303" spans="1:8" ht="66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:8" ht="66" x14ac:dyDescent="0.3">
       <c r="A303" s="6">
         <v>1</v>
       </c>
@@ -15660,7 +15659,7 @@
         <v>1348</v>
       </c>
     </row>
-    <row r="304" spans="1:8" ht="66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:8" ht="66" x14ac:dyDescent="0.3">
       <c r="A304" s="6">
         <v>6</v>
       </c>
@@ -15686,7 +15685,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="305" spans="1:8" ht="66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:8" ht="66" x14ac:dyDescent="0.3">
       <c r="A305" s="6">
         <v>0</v>
       </c>
@@ -15712,7 +15711,7 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="306" spans="1:8" ht="66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:8" ht="66" x14ac:dyDescent="0.3">
       <c r="A306" s="6">
         <v>16</v>
       </c>
@@ -15738,7 +15737,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="307" spans="1:8" ht="66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:8" ht="66" x14ac:dyDescent="0.3">
       <c r="A307" s="6">
         <v>1</v>
       </c>
@@ -15816,7 +15815,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="310" spans="1:8" s="4" customFormat="1" ht="396" hidden="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:8" s="4" customFormat="1" ht="396" x14ac:dyDescent="0.3">
       <c r="A310" s="6">
         <v>9</v>
       </c>
@@ -15842,7 +15841,7 @@
         <v>1378</v>
       </c>
     </row>
-    <row r="311" spans="1:8" ht="66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:8" ht="66" x14ac:dyDescent="0.3">
       <c r="A311" s="6">
         <v>21</v>
       </c>
@@ -15868,7 +15867,7 @@
         <v>1383</v>
       </c>
     </row>
-    <row r="312" spans="1:8" s="4" customFormat="1" ht="66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:8" s="4" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="A312" s="6">
         <v>25</v>
       </c>
@@ -15894,7 +15893,7 @@
         <v>1387</v>
       </c>
     </row>
-    <row r="313" spans="1:8" ht="66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:8" ht="66" x14ac:dyDescent="0.3">
       <c r="A313" s="6">
         <v>20</v>
       </c>
@@ -15920,7 +15919,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="314" spans="1:8" ht="66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:8" ht="66" x14ac:dyDescent="0.3">
       <c r="A314" s="6">
         <v>1</v>
       </c>
@@ -15972,7 +15971,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="316" spans="1:8" ht="66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:8" ht="66" x14ac:dyDescent="0.3">
       <c r="A316" s="6">
         <v>1</v>
       </c>
@@ -16024,7 +16023,7 @@
         <v>1411</v>
       </c>
     </row>
-    <row r="318" spans="1:8" ht="66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:8" ht="66" x14ac:dyDescent="0.3">
       <c r="A318" s="6">
         <v>3</v>
       </c>
@@ -16050,7 +16049,7 @@
         <v>1415</v>
       </c>
     </row>
-    <row r="319" spans="1:8" ht="82.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:8" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A319" s="6">
         <v>1</v>
       </c>
@@ -16074,7 +16073,7 @@
         <v>1419</v>
       </c>
     </row>
-    <row r="320" spans="1:8" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A320" s="6">
         <v>1</v>
       </c>
@@ -16100,7 +16099,7 @@
         <v>1424</v>
       </c>
     </row>
-    <row r="321" spans="1:8" s="4" customFormat="1" ht="66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:8" s="4" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="A321" s="6">
         <v>1</v>
       </c>
@@ -16126,7 +16125,7 @@
         <v>1428</v>
       </c>
     </row>
-    <row r="322" spans="1:8" ht="99" hidden="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:8" ht="99" x14ac:dyDescent="0.3">
       <c r="A322" s="6">
         <v>1</v>
       </c>
@@ -16152,7 +16151,7 @@
         <v>1432</v>
       </c>
     </row>
-    <row r="323" spans="1:8" s="4" customFormat="1" ht="82.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:8" s="4" customFormat="1" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A323" s="6">
         <v>1</v>
       </c>
@@ -16178,7 +16177,7 @@
         <v>1435</v>
       </c>
     </row>
-    <row r="324" spans="1:8" s="4" customFormat="1" ht="66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:8" s="4" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="A324" s="6">
         <v>1</v>
       </c>
@@ -16204,7 +16203,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="325" spans="1:8" s="4" customFormat="1" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:8" s="4" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A325" s="6">
         <v>1</v>
       </c>
@@ -16230,7 +16229,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="326" spans="1:8" s="4" customFormat="1" ht="82.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:8" s="4" customFormat="1" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A326" s="6">
         <v>1</v>
       </c>
@@ -16256,7 +16255,7 @@
         <v>1446</v>
       </c>
     </row>
-    <row r="327" spans="1:8" ht="66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:8" ht="66" x14ac:dyDescent="0.3">
       <c r="A327" s="6">
         <v>7</v>
       </c>
@@ -16282,7 +16281,7 @@
         <v>1449</v>
       </c>
     </row>
-    <row r="328" spans="1:8" ht="66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:8" ht="66" x14ac:dyDescent="0.3">
       <c r="A328" s="6">
         <v>6</v>
       </c>
@@ -16308,7 +16307,7 @@
         <v>1452</v>
       </c>
     </row>
-    <row r="329" spans="1:8" s="4" customFormat="1" ht="66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:8" s="4" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="A329" s="6">
         <v>7</v>
       </c>
@@ -16334,7 +16333,7 @@
         <v>1456</v>
       </c>
     </row>
-    <row r="330" spans="1:8" s="4" customFormat="1" ht="66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:8" s="4" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="A330" s="6">
         <v>7</v>
       </c>
@@ -16360,7 +16359,7 @@
         <v>1459</v>
       </c>
     </row>
-    <row r="331" spans="1:8" ht="66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:8" ht="66" x14ac:dyDescent="0.3">
       <c r="A331" s="6">
         <v>0</v>
       </c>
@@ -16386,7 +16385,7 @@
         <v>1463</v>
       </c>
     </row>
-    <row r="332" spans="1:8" s="4" customFormat="1" ht="66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:8" s="4" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="A332" s="6">
         <v>0</v>
       </c>
@@ -16412,7 +16411,7 @@
         <v>1468</v>
       </c>
     </row>
-    <row r="333" spans="1:8" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A333" s="6">
         <v>0</v>
       </c>
@@ -16436,7 +16435,7 @@
         <v>1472</v>
       </c>
     </row>
-    <row r="334" spans="1:8" ht="82.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:8" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A334" s="6">
         <v>16</v>
       </c>
@@ -16462,7 +16461,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="335" spans="1:8" ht="115.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:8" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A335" s="6">
         <v>14</v>
       </c>
@@ -16488,7 +16487,7 @@
         <v>1482</v>
       </c>
     </row>
-    <row r="336" spans="1:8" ht="66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:8" ht="66" x14ac:dyDescent="0.3">
       <c r="A336" s="6">
         <v>1</v>
       </c>
@@ -16514,7 +16513,7 @@
         <v>1487</v>
       </c>
     </row>
-    <row r="337" spans="1:8" ht="264" hidden="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:8" ht="264" x14ac:dyDescent="0.3">
       <c r="A337" s="6">
         <v>9</v>
       </c>
@@ -16540,7 +16539,7 @@
         <v>1492</v>
       </c>
     </row>
-    <row r="338" spans="1:8" ht="99" hidden="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:8" ht="99" x14ac:dyDescent="0.3">
       <c r="A338" s="6">
         <v>1</v>
       </c>
@@ -16566,7 +16565,7 @@
         <v>1497</v>
       </c>
     </row>
-    <row r="339" spans="1:8" ht="66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:8" ht="66" x14ac:dyDescent="0.3">
       <c r="A339" s="6">
         <v>21</v>
       </c>
@@ -16592,7 +16591,7 @@
         <v>1502</v>
       </c>
     </row>
-    <row r="340" spans="1:8" ht="82.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:8" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A340" s="6">
         <v>1</v>
       </c>
@@ -16618,7 +16617,7 @@
         <v>1507</v>
       </c>
     </row>
-    <row r="341" spans="1:8" ht="82.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:8" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A341" s="6">
         <v>1</v>
       </c>
@@ -16644,7 +16643,7 @@
         <v>1512</v>
       </c>
     </row>
-    <row r="342" spans="1:8" ht="66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:8" ht="66" x14ac:dyDescent="0.3">
       <c r="A342" s="6">
         <v>25</v>
       </c>
@@ -16670,7 +16669,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="343" spans="1:8" ht="82.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:8" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A343" s="6">
         <v>1</v>
       </c>
@@ -16696,7 +16695,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="344" spans="1:8" ht="66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:8" ht="66" x14ac:dyDescent="0.3">
       <c r="A344" s="6">
         <v>18</v>
       </c>
@@ -16722,7 +16721,7 @@
         <v>1525</v>
       </c>
     </row>
-    <row r="345" spans="1:8" ht="82.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:8" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A345" s="6">
         <v>27</v>
       </c>
@@ -16748,7 +16747,7 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="346" spans="1:8" s="4" customFormat="1" ht="66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:8" s="4" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="A346" s="6">
         <v>3</v>
       </c>
@@ -16774,7 +16773,7 @@
         <v>1533</v>
       </c>
     </row>
-    <row r="347" spans="1:8" s="4" customFormat="1" ht="66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:8" s="4" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="A347" s="6">
         <v>1</v>
       </c>
@@ -16826,7 +16825,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="349" spans="1:8" s="4" customFormat="1" ht="66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:8" s="4" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="A349" s="6">
         <v>1</v>
       </c>
@@ -16852,7 +16851,7 @@
         <v>1547</v>
       </c>
     </row>
-    <row r="350" spans="1:8" s="4" customFormat="1" ht="66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:8" s="4" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="A350" s="6">
         <v>1</v>
       </c>
@@ -16904,7 +16903,7 @@
         <v>1556</v>
       </c>
     </row>
-    <row r="352" spans="1:8" s="4" customFormat="1" ht="66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:8" s="4" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="A352" s="6">
         <v>1</v>
       </c>
@@ -16956,7 +16955,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="354" spans="1:8" ht="66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:8" ht="66" x14ac:dyDescent="0.3">
       <c r="A354" s="6">
         <v>1</v>
       </c>
@@ -16982,7 +16981,7 @@
         <v>1568</v>
       </c>
     </row>
-    <row r="355" spans="1:8" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A355" s="6">
         <v>20</v>
       </c>
@@ -17008,7 +17007,7 @@
         <v>1573</v>
       </c>
     </row>
-    <row r="356" spans="1:8" ht="66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:8" ht="66" x14ac:dyDescent="0.3">
       <c r="A356" s="6">
         <v>1</v>
       </c>
@@ -17034,7 +17033,7 @@
         <v>1578</v>
       </c>
     </row>
-    <row r="357" spans="1:8" ht="66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:8" ht="66" x14ac:dyDescent="0.3">
       <c r="A357" s="6">
         <v>18</v>
       </c>
@@ -17060,7 +17059,7 @@
         <v>1583</v>
       </c>
     </row>
-    <row r="358" spans="1:8" ht="66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:8" ht="66" x14ac:dyDescent="0.3">
       <c r="A358" s="6">
         <v>0</v>
       </c>
@@ -17086,7 +17085,7 @@
         <v>1587</v>
       </c>
     </row>
-    <row r="359" spans="1:8" s="4" customFormat="1" ht="66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:8" s="4" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="A359" s="6">
         <v>1</v>
       </c>
@@ -17112,7 +17111,7 @@
         <v>1591</v>
       </c>
     </row>
-    <row r="360" spans="1:8" s="4" customFormat="1" ht="66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:8" s="4" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="A360" s="6">
         <v>1</v>
       </c>
@@ -17138,7 +17137,7 @@
         <v>1596</v>
       </c>
     </row>
-    <row r="361" spans="1:8" s="4" customFormat="1" ht="66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:8" s="4" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="A361" s="6">
         <v>1</v>
       </c>
@@ -17164,7 +17163,7 @@
         <v>1598</v>
       </c>
     </row>
-    <row r="362" spans="1:8" s="4" customFormat="1" ht="66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:8" s="4" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="A362" s="6">
         <v>1</v>
       </c>
@@ -17190,7 +17189,7 @@
         <v>1601</v>
       </c>
     </row>
-    <row r="363" spans="1:8" s="4" customFormat="1" ht="66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:8" s="4" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="A363" s="6">
         <v>1</v>
       </c>
@@ -17216,7 +17215,7 @@
         <v>1606</v>
       </c>
     </row>
-    <row r="364" spans="1:8" s="4" customFormat="1" ht="66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:8" s="4" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="A364" s="6">
         <v>3</v>
       </c>
@@ -17268,7 +17267,7 @@
         <v>1615</v>
       </c>
     </row>
-    <row r="366" spans="1:8" ht="99" hidden="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:8" ht="99" x14ac:dyDescent="0.3">
       <c r="A366" s="6">
         <v>18</v>
       </c>
@@ -17346,7 +17345,7 @@
         <v>1630</v>
       </c>
     </row>
-    <row r="369" spans="1:8" s="4" customFormat="1" ht="66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:8" s="4" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="A369" s="6">
         <v>1</v>
       </c>
@@ -17372,7 +17371,7 @@
         <v>1633</v>
       </c>
     </row>
-    <row r="370" spans="1:8" s="4" customFormat="1" ht="66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:8" s="4" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="A370" s="6">
         <v>1</v>
       </c>
@@ -17398,7 +17397,7 @@
         <v>1637</v>
       </c>
     </row>
-    <row r="371" spans="1:8" ht="82.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:8" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A371" s="6">
         <v>6</v>
       </c>
@@ -17450,7 +17449,7 @@
         <v>1646</v>
       </c>
     </row>
-    <row r="373" spans="1:8" ht="148.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:8" ht="148.5" x14ac:dyDescent="0.3">
       <c r="A373" s="6">
         <v>1</v>
       </c>
@@ -17474,7 +17473,7 @@
         <v>1649</v>
       </c>
     </row>
-    <row r="374" spans="1:8" s="4" customFormat="1" ht="82.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:8" s="4" customFormat="1" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A374" s="6">
         <v>15</v>
       </c>
@@ -17500,7 +17499,7 @@
         <v>1654</v>
       </c>
     </row>
-    <row r="375" spans="1:8" s="4" customFormat="1" ht="66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:8" s="4" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="A375" s="6">
         <v>15</v>
       </c>
@@ -17526,7 +17525,7 @@
         <v>1659</v>
       </c>
     </row>
-    <row r="376" spans="1:8" s="4" customFormat="1" ht="66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:8" s="4" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="A376" s="6">
         <v>1</v>
       </c>
@@ -17552,7 +17551,7 @@
         <v>1664</v>
       </c>
     </row>
-    <row r="377" spans="1:8" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A377" s="6">
         <v>12</v>
       </c>
@@ -17604,7 +17603,7 @@
         <v>1674</v>
       </c>
     </row>
-    <row r="379" spans="1:8" ht="82.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:8" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A379" s="6">
         <v>5</v>
       </c>
@@ -17630,7 +17629,7 @@
         <v>1678</v>
       </c>
     </row>
-    <row r="380" spans="1:8" s="4" customFormat="1" ht="82.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:8" s="4" customFormat="1" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A380" s="6">
         <v>1</v>
       </c>
@@ -17656,7 +17655,7 @@
         <v>1682</v>
       </c>
     </row>
-    <row r="381" spans="1:8" ht="148.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:8" ht="148.5" x14ac:dyDescent="0.3">
       <c r="A381" s="6">
         <v>6</v>
       </c>
@@ -17682,7 +17681,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="382" spans="1:8" ht="99" hidden="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:8" ht="99" x14ac:dyDescent="0.3">
       <c r="A382" s="6">
         <v>16</v>
       </c>
@@ -17708,7 +17707,7 @@
         <v>1691</v>
       </c>
     </row>
-    <row r="383" spans="1:8" s="4" customFormat="1" ht="66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:8" s="4" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="A383" s="6">
         <v>1</v>
       </c>
@@ -17734,7 +17733,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="384" spans="1:8" s="4" customFormat="1" ht="82.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:8" s="4" customFormat="1" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A384" s="6">
         <v>1</v>
       </c>
@@ -17760,7 +17759,7 @@
         <v>1699</v>
       </c>
     </row>
-    <row r="385" spans="1:8" s="4" customFormat="1" ht="82.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:8" s="4" customFormat="1" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A385" s="6">
         <v>1</v>
       </c>
@@ -17786,7 +17785,7 @@
         <v>1703</v>
       </c>
     </row>
-    <row r="386" spans="1:8" ht="82.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:8" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A386" s="6">
         <v>1</v>
       </c>
@@ -17812,7 +17811,7 @@
         <v>1707</v>
       </c>
     </row>
-    <row r="387" spans="1:8" ht="132" hidden="1" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:8" ht="132" x14ac:dyDescent="0.3">
       <c r="A387" s="6">
         <v>12</v>
       </c>
@@ -17838,7 +17837,7 @@
         <v>1712</v>
       </c>
     </row>
-    <row r="388" spans="1:8" s="4" customFormat="1" ht="99" hidden="1" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:8" s="4" customFormat="1" ht="99" x14ac:dyDescent="0.3">
       <c r="A388" s="6">
         <v>25</v>
       </c>
@@ -17864,7 +17863,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="389" spans="1:8" s="4" customFormat="1" ht="132" hidden="1" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:8" s="4" customFormat="1" ht="132" x14ac:dyDescent="0.3">
       <c r="A389" s="6">
         <v>1</v>
       </c>
@@ -17916,7 +17915,7 @@
         <v>1723</v>
       </c>
     </row>
-    <row r="391" spans="1:8" s="4" customFormat="1" ht="82.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:8" s="4" customFormat="1" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A391" s="6">
         <v>1</v>
       </c>
@@ -17942,7 +17941,7 @@
         <v>1726</v>
       </c>
     </row>
-    <row r="392" spans="1:8" ht="247.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:8" ht="247.5" x14ac:dyDescent="0.3">
       <c r="A392" s="6">
         <v>10</v>
       </c>
@@ -17968,7 +17967,7 @@
         <v>1731</v>
       </c>
     </row>
-    <row r="393" spans="1:8" ht="82.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:8" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A393" s="6">
         <v>1</v>
       </c>
@@ -17994,7 +17993,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="394" spans="1:8" ht="70.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:8" ht="70.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A394" s="6">
         <v>25</v>
       </c>
@@ -18020,7 +18019,7 @@
         <v>1738</v>
       </c>
     </row>
-    <row r="395" spans="1:8" ht="82.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:8" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A395" s="6">
         <v>21</v>
       </c>
@@ -18046,7 +18045,7 @@
         <v>1743</v>
       </c>
     </row>
-    <row r="396" spans="1:8" ht="132" hidden="1" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:8" ht="132" x14ac:dyDescent="0.3">
       <c r="A396" s="6">
         <v>1</v>
       </c>
@@ -18072,7 +18071,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="397" spans="1:8" ht="66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:8" ht="66" x14ac:dyDescent="0.3">
       <c r="A397" s="6">
         <v>1</v>
       </c>
@@ -18098,7 +18097,7 @@
         <v>1751</v>
       </c>
     </row>
-    <row r="398" spans="1:8" ht="82.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:8" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A398" s="6">
         <v>1</v>
       </c>
@@ -18124,7 +18123,7 @@
         <v>1753</v>
       </c>
     </row>
-    <row r="399" spans="1:8" ht="115.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:8" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A399" s="6">
         <v>16</v>
       </c>
@@ -18150,7 +18149,7 @@
         <v>1757</v>
       </c>
     </row>
-    <row r="400" spans="1:8" ht="66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:8" ht="66" x14ac:dyDescent="0.3">
       <c r="A400" s="6">
         <v>1</v>
       </c>
@@ -18176,7 +18175,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="401" spans="1:8" ht="247.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:8" ht="247.5" x14ac:dyDescent="0.3">
       <c r="A401" s="6">
         <v>20</v>
       </c>
@@ -18202,7 +18201,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="402" spans="1:8" ht="82.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:8" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A402" s="6">
         <v>18</v>
       </c>
@@ -18254,7 +18253,7 @@
         <v>1774</v>
       </c>
     </row>
-    <row r="404" spans="1:8" ht="82.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:8" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A404" s="6">
         <v>1</v>
       </c>
@@ -18280,7 +18279,7 @@
         <v>1777</v>
       </c>
     </row>
-    <row r="405" spans="1:8" ht="66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:8" ht="66" x14ac:dyDescent="0.3">
       <c r="A405" s="6">
         <v>1</v>
       </c>
@@ -18306,7 +18305,7 @@
         <v>1781</v>
       </c>
     </row>
-    <row r="406" spans="1:8" ht="82.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:8" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A406" s="6">
         <v>1</v>
       </c>
@@ -18332,7 +18331,7 @@
         <v>1786</v>
       </c>
     </row>
-    <row r="407" spans="1:8" ht="115.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:8" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A407" s="6">
         <v>1</v>
       </c>
@@ -18358,7 +18357,7 @@
         <v>1790</v>
       </c>
     </row>
-    <row r="408" spans="1:8" ht="132" hidden="1" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:8" ht="132" x14ac:dyDescent="0.3">
       <c r="A408" s="6">
         <v>1</v>
       </c>
@@ -18384,7 +18383,7 @@
         <v>1793</v>
       </c>
     </row>
-    <row r="409" spans="1:8" ht="66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:8" ht="66" x14ac:dyDescent="0.3">
       <c r="A409" s="6">
         <v>1</v>
       </c>
@@ -18410,7 +18409,7 @@
         <v>1797</v>
       </c>
     </row>
-    <row r="410" spans="1:8" ht="66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:8" ht="66" x14ac:dyDescent="0.3">
       <c r="A410" s="6">
         <v>1</v>
       </c>
@@ -18436,7 +18435,7 @@
         <v>1802</v>
       </c>
     </row>
-    <row r="411" spans="1:8" ht="66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:8" ht="66" x14ac:dyDescent="0.3">
       <c r="A411" s="6">
         <v>1</v>
       </c>
@@ -18462,7 +18461,7 @@
         <v>1806</v>
       </c>
     </row>
-    <row r="412" spans="1:8" ht="82.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:8" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A412" s="6">
         <v>1</v>
       </c>
@@ -18488,7 +18487,7 @@
         <v>1809</v>
       </c>
     </row>
-    <row r="413" spans="1:8" ht="148.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:8" ht="148.5" x14ac:dyDescent="0.3">
       <c r="A413" s="6">
         <v>0</v>
       </c>
@@ -18514,7 +18513,7 @@
         <v>1814</v>
       </c>
     </row>
-    <row r="414" spans="1:8" ht="82.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:8" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A414" s="6">
         <v>1</v>
       </c>
@@ -18540,7 +18539,7 @@
         <v>1816</v>
       </c>
     </row>
-    <row r="415" spans="1:8" ht="198" hidden="1" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:8" ht="198" x14ac:dyDescent="0.3">
       <c r="A415" s="6">
         <v>18</v>
       </c>
@@ -18566,7 +18565,7 @@
         <v>1821</v>
       </c>
     </row>
-    <row r="416" spans="1:8" ht="181.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:8" ht="181.5" x14ac:dyDescent="0.3">
       <c r="A416" s="6">
         <v>7</v>
       </c>
@@ -18592,7 +18591,7 @@
         <v>1825</v>
       </c>
     </row>
-    <row r="417" spans="1:8" ht="247.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:8" ht="247.5" x14ac:dyDescent="0.3">
       <c r="A417" s="6">
         <v>1</v>
       </c>
@@ -18618,7 +18617,7 @@
         <v>1829</v>
       </c>
     </row>
-    <row r="418" spans="1:8" ht="82.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:8" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A418" s="6">
         <v>1</v>
       </c>
@@ -18644,7 +18643,7 @@
         <v>1833</v>
       </c>
     </row>
-    <row r="419" spans="1:8" ht="66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:8" ht="66" x14ac:dyDescent="0.3">
       <c r="A419" s="6">
         <v>1</v>
       </c>
@@ -18670,7 +18669,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="420" spans="1:8" ht="82.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:8" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A420" s="6">
         <v>1</v>
       </c>
@@ -18696,7 +18695,7 @@
         <v>1841</v>
       </c>
     </row>
-    <row r="421" spans="1:8" ht="82.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:8" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A421" s="6">
         <v>1</v>
       </c>
@@ -18722,7 +18721,7 @@
         <v>1845</v>
       </c>
     </row>
-    <row r="422" spans="1:8" ht="66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:8" ht="66" x14ac:dyDescent="0.3">
       <c r="A422" s="6">
         <v>1</v>
       </c>
@@ -18748,7 +18747,7 @@
         <v>1849</v>
       </c>
     </row>
-    <row r="423" spans="1:8" ht="148.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:8" ht="148.5" x14ac:dyDescent="0.3">
       <c r="A423" s="6">
         <v>7</v>
       </c>
@@ -18774,7 +18773,7 @@
         <v>1853</v>
       </c>
     </row>
-    <row r="424" spans="1:8" ht="148.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:8" ht="148.5" x14ac:dyDescent="0.3">
       <c r="A424" s="6">
         <v>7</v>
       </c>
@@ -18800,7 +18799,7 @@
         <v>1856</v>
       </c>
     </row>
-    <row r="425" spans="1:8" ht="148.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:8" ht="148.5" x14ac:dyDescent="0.3">
       <c r="A425" s="6">
         <v>25</v>
       </c>
@@ -18826,7 +18825,7 @@
         <v>1860</v>
       </c>
     </row>
-    <row r="426" spans="1:8" s="4" customFormat="1" ht="82.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:8" s="4" customFormat="1" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A426" s="6">
         <v>15</v>
       </c>
@@ -18852,7 +18851,7 @@
         <v>1864</v>
       </c>
     </row>
-    <row r="427" spans="1:8" ht="148.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:8" ht="148.5" x14ac:dyDescent="0.3">
       <c r="A427" s="6">
         <v>1</v>
       </c>
@@ -18878,7 +18877,7 @@
         <v>1869</v>
       </c>
     </row>
-    <row r="428" spans="1:8" ht="82.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:8" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A428" s="6">
         <v>1</v>
       </c>
@@ -18904,7 +18903,7 @@
         <v>1873</v>
       </c>
     </row>
-    <row r="429" spans="1:8" ht="82.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:8" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A429" s="6">
         <v>1</v>
       </c>
@@ -18930,7 +18929,7 @@
         <v>1874</v>
       </c>
     </row>
-    <row r="430" spans="1:8" ht="82.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:8" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A430" s="6">
         <v>1</v>
       </c>
@@ -18956,7 +18955,7 @@
         <v>1878</v>
       </c>
     </row>
-    <row r="431" spans="1:8" ht="115.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:8" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A431" s="6">
         <v>1</v>
       </c>
@@ -18982,7 +18981,7 @@
         <v>1883</v>
       </c>
     </row>
-    <row r="432" spans="1:8" ht="148.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:8" ht="148.5" x14ac:dyDescent="0.3">
       <c r="A432" s="6">
         <v>25</v>
       </c>
@@ -19008,7 +19007,7 @@
         <v>1888</v>
       </c>
     </row>
-    <row r="433" spans="1:8" ht="132" hidden="1" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:8" ht="132" x14ac:dyDescent="0.3">
       <c r="A433" s="6">
         <v>0</v>
       </c>
@@ -19034,7 +19033,7 @@
         <v>1893</v>
       </c>
     </row>
-    <row r="434" spans="1:8" ht="115.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:8" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A434" s="6">
         <v>1</v>
       </c>
@@ -19060,7 +19059,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="435" spans="1:8" ht="132" hidden="1" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:8" ht="132" x14ac:dyDescent="0.3">
       <c r="A435" s="6">
         <v>20</v>
       </c>
@@ -19086,7 +19085,7 @@
         <v>1902</v>
       </c>
     </row>
-    <row r="436" spans="1:8" ht="82.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:8" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A436" s="6">
         <v>1</v>
       </c>
@@ -19112,7 +19111,7 @@
         <v>1904</v>
       </c>
     </row>
-    <row r="437" spans="1:8" ht="165" hidden="1" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:8" ht="165" x14ac:dyDescent="0.3">
       <c r="A437" s="6">
         <v>0</v>
       </c>
@@ -19138,7 +19137,7 @@
         <v>1909</v>
       </c>
     </row>
-    <row r="438" spans="1:8" ht="99" hidden="1" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:8" ht="99" x14ac:dyDescent="0.3">
       <c r="A438" s="6">
         <v>0</v>
       </c>
@@ -19165,13 +19164,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H438" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="13"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:H438" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
